--- a/final_analysis.xlsx
+++ b/final_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://somaiya0-my.sharepoint.com/personal/jitendrakumar_v_somaiya_edu/Documents/Interview_prep/Tasks-given-by-company/Blackcoffer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_41FD812D6170D563543C34499872D816155DBE98" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AF1D9AC-1215-4968-ADA2-DE7641516544}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_41FD812D6170D563543C34499872D816155DBE98" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66DF8391-04EB-4D79-9345-D358FF2CB11B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,6 +413,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -500,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -511,6 +514,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -851,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,17 +868,17 @@
     <col min="2" max="2" width="117" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -887,28 +894,28 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -917,7 +924,7 @@
       <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -934,28 +941,28 @@
       <c r="D2">
         <v>33</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="7">
         <v>0.31958762557126158</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="7">
         <v>5.3472987842627898E-2</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="7">
         <v>9.4460888615243643</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="7">
         <v>23.558441558441562</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="7">
         <v>5.6780595369349512E-2</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="7">
         <v>23.558441558441562</v>
       </c>
       <c r="K2">
         <v>1814</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="7">
         <v>5.5760749724366043</v>
       </c>
       <c r="M2">
@@ -964,7 +971,7 @@
       <c r="N2">
         <v>1155</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="7">
         <v>6.7138919514884234</v>
       </c>
     </row>
@@ -981,28 +988,28 @@
       <c r="D3">
         <v>37</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="7">
         <v>0.20430107307203149</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="7">
         <v>6.4137930990249697E-2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="7">
         <v>7.2888965517241378</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="7">
         <v>18.125</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="7">
         <v>9.7241379310344822E-2</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="7">
         <v>18.125</v>
       </c>
       <c r="K3">
         <v>1450</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="7">
         <v>4.7</v>
       </c>
       <c r="M3">
@@ -1011,7 +1018,7 @@
       <c r="N3">
         <v>777</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="7">
         <v>5.8489655172413793</v>
       </c>
     </row>
@@ -1028,28 +1035,28 @@
       <c r="D4">
         <v>33</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="7">
         <v>0.33333332996633003</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="7">
         <v>5.7457922195323308E-2</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="7">
         <v>8.1314506162302411</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="7">
         <v>20.27058823529412</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="7">
         <v>5.8038305281485777E-2</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="7">
         <v>20.27058823529412</v>
       </c>
       <c r="K4">
         <v>1723</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="7">
         <v>5.3354614045269866</v>
       </c>
       <c r="M4">
@@ -1058,7 +1065,7 @@
       <c r="N4">
         <v>1065</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="7">
         <v>6.4544399303540336</v>
       </c>
     </row>
@@ -1075,28 +1082,28 @@
       <c r="D5">
         <v>25</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="7">
         <v>0.39024389767995249</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="7">
         <v>4.9249249219670117E-2</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="7">
         <v>7.0448806701438293</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="7">
         <v>17.526315789473681</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="7">
         <v>8.5885885885885888E-2</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="7">
         <v>17.526315789473681</v>
       </c>
       <c r="K5">
         <v>1665</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="7">
         <v>4.7339339339339341</v>
       </c>
       <c r="M5">
@@ -1105,7 +1112,7 @@
       <c r="N5">
         <v>839</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="7">
         <v>5.9393393393393392</v>
       </c>
     </row>
@@ -1122,28 +1129,28 @@
       <c r="D6">
         <v>25</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="7">
         <v>0.34210525865650981</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="7">
         <v>4.2363433644167538E-2</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="7">
         <v>9.1167661544106249</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="7">
         <v>22.708860759493671</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="7">
         <v>8.3054626532887407E-2</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="7">
         <v>22.708860759493671</v>
       </c>
       <c r="K6">
         <v>1794</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="7">
         <v>4.8868450390189517</v>
       </c>
       <c r="M6">
@@ -1152,7 +1159,7 @@
       <c r="N6">
         <v>935</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="7">
         <v>6.0685618729096991</v>
       </c>
     </row>
@@ -1169,28 +1176,28 @@
       <c r="D7">
         <v>24</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="7">
         <v>0.28358208531967039</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="7">
         <v>5.045180719092484E-2</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="7">
         <v>8.3316265060240973</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="7">
         <v>20.75</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="7">
         <v>7.9066265060240962E-2</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="7">
         <v>20.75</v>
       </c>
       <c r="K7">
         <v>1328</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="7">
         <v>4.8885542168674698</v>
       </c>
       <c r="M7">
@@ -1199,7 +1206,7 @@
       <c r="N7">
         <v>688</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="7">
         <v>6.0346385542168672</v>
       </c>
     </row>
@@ -1216,28 +1223,28 @@
       <c r="D8">
         <v>12</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="7">
         <v>0.35135134185536909</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="7">
         <v>4.9999999932432433E-2</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="7">
         <v>6.6221021021021018</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="7">
         <v>16.444444444444439</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="7">
         <v>0.1108108108108108</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="7">
         <v>16.444444444444439</v>
       </c>
       <c r="K8">
         <v>740</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="7">
         <v>5.006756756756757</v>
       </c>
       <c r="M8">
@@ -1246,7 +1253,7 @@
       <c r="N8">
         <v>375</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="7">
         <v>6.1932432432432432</v>
       </c>
     </row>
@@ -1263,28 +1270,28 @@
       <c r="D9">
         <v>12</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="7">
         <v>0.35135134185536909</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="7">
         <v>4.9999999932432433E-2</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="7">
         <v>6.6221021021021018</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="7">
         <v>16.444444444444439</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="7">
         <v>0.1108108108108108</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="7">
         <v>16.444444444444439</v>
       </c>
       <c r="K9">
         <v>740</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="7">
         <v>5.006756756756757</v>
       </c>
       <c r="M9">
@@ -1293,7 +1300,7 @@
       <c r="N9">
         <v>375</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="7">
         <v>6.1932432432432432</v>
       </c>
     </row>
@@ -1310,28 +1317,28 @@
       <c r="D10">
         <v>13</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="7">
         <v>0.46938774552269907</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="7">
         <v>6.5159574381436741E-2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="7">
         <v>8.3768321513002366</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="7">
         <v>20.888888888888889</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="7">
         <v>5.3191489361702128E-2</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="7">
         <v>20.888888888888889</v>
       </c>
       <c r="K10">
         <v>752</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="7">
         <v>4.6436170212765946</v>
       </c>
       <c r="M10">
@@ -1340,7 +1347,7 @@
       <c r="N10">
         <v>362</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="7">
         <v>5.7473404255319149</v>
       </c>
     </row>
@@ -1357,28 +1364,28 @@
       <c r="D11">
         <v>40</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="7">
         <v>0.23076922855029591</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="7">
         <v>4.6952595915597022E-2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="7">
         <v>10.963914945796059</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="7">
         <v>27.345679012345681</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="7">
         <v>6.4108352144469527E-2</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="7">
         <v>27.345679012345681</v>
       </c>
       <c r="K11">
         <v>2215</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="7">
         <v>4.7738148984198654</v>
       </c>
       <c r="M11">
@@ -1387,7 +1394,7 @@
       <c r="N11">
         <v>1197</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="7">
         <v>5.8930022573363434</v>
       </c>
     </row>
@@ -1404,28 +1411,28 @@
       <c r="D12">
         <v>65</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="7">
         <v>-0.18181818016528931</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="7">
         <v>5.235602091748881E-2</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="7">
         <v>8.1158001684179695</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="7">
         <v>20.20192307692308</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="7">
         <v>8.7577344121846742E-2</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="7">
         <v>20.20192307692308</v>
       </c>
       <c r="K12">
         <v>2101</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="7">
         <v>4.8257972394098054</v>
       </c>
       <c r="M12">
@@ -1434,7 +1441,7 @@
       <c r="N12">
         <v>1060</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="7">
         <v>5.9714421703950498</v>
       </c>
     </row>
@@ -1451,28 +1458,28 @@
       <c r="D13">
         <v>19</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="7">
         <v>0.28301886258454978</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="7">
         <v>4.4093177999922482E-2</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="7">
         <v>8.3146135750760237</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="7">
         <v>20.72413793103448</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="7">
         <v>6.2396006655574043E-2</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="7">
         <v>20.72413793103448</v>
       </c>
       <c r="K13">
         <v>1202</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="7">
         <v>5.4525790349417633</v>
       </c>
       <c r="M13">
@@ -1481,7 +1488,7 @@
       <c r="N13">
         <v>824</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="7">
         <v>6.5499168053244592</v>
       </c>
     </row>
@@ -1498,28 +1505,28 @@
       <c r="D14">
         <v>24</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="7">
         <v>5.8823528258362193E-2</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="7">
         <v>4.0189125263838353E-2</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="7">
         <v>6.2192431144169609</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="7">
         <v>15.47560975609756</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="7">
         <v>7.2498029944838449E-2</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="7">
         <v>15.47560975609756</v>
       </c>
       <c r="K14">
         <v>1269</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="7">
         <v>4.8037825059101653</v>
       </c>
       <c r="M14">
@@ -1528,7 +1535,7 @@
       <c r="N14">
         <v>685</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="7">
         <v>5.9889676910953504</v>
       </c>
     </row>
@@ -1545,28 +1552,28 @@
       <c r="D15">
         <v>24</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="7">
         <v>0.42857142346938781</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="7">
         <v>4.8611111082979677E-2</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="7">
         <v>11.011706349206349</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="7">
         <v>27.428571428571431</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="7">
         <v>0.10069444444444441</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="7">
         <v>27.428571428571431</v>
       </c>
       <c r="K15">
         <v>1728</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="7">
         <v>4.7737268518518521</v>
       </c>
       <c r="M15">
@@ -1575,7 +1582,7 @@
       <c r="N15">
         <v>949</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="7">
         <v>5.8680555555555554</v>
       </c>
     </row>
@@ -1592,28 +1599,28 @@
       <c r="D16">
         <v>23</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="7">
         <v>0.4831460619871229</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="7">
         <v>5.2818991066576261E-2</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="7">
         <v>8.1584641235565396</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="7">
         <v>20.30120481927711</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="7">
         <v>9.4955489614243327E-2</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="7">
         <v>20.30120481927711</v>
       </c>
       <c r="K16">
         <v>1685</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="7">
         <v>4.9264094955489606</v>
       </c>
       <c r="M16">
@@ -1622,7 +1629,7 @@
       <c r="N16">
         <v>965</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="7">
         <v>6.0813056379821946</v>
       </c>
     </row>
@@ -1639,28 +1646,28 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="7">
         <v>0.99999996153846293</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="7">
         <v>5.1383399107937953E-2</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="7">
         <v>9.2324110671936772</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="7">
         <v>23</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="7">
         <v>8.1027667984189727E-2</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="7">
         <v>23</v>
       </c>
       <c r="K17">
         <v>506</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="7">
         <v>5.4051383399209483</v>
       </c>
       <c r="M17">
@@ -1669,7 +1676,7 @@
       <c r="N17">
         <v>300</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="7">
         <v>6.5434782608695654</v>
       </c>
     </row>
@@ -1686,28 +1693,28 @@
       <c r="D18">
         <v>39</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="7">
         <v>0.33898304797472001</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="7">
         <v>6.3406770519394529E-2</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="7">
         <v>82.739482954206224</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="7">
         <v>206.7777777777778</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="7">
         <v>7.0929607737775388E-2</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="7">
         <v>206.7777777777778</v>
       </c>
       <c r="K18">
         <v>1861</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="7">
         <v>4.617409994626545</v>
       </c>
       <c r="M18">
@@ -1716,7 +1723,7 @@
       <c r="N18">
         <v>936</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="7">
         <v>5.6636217087587317</v>
       </c>
     </row>
@@ -1733,28 +1740,28 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="7">
         <v>0.99999996000000158</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="7">
         <v>2.577319584971835E-2</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="7">
         <v>6.9590868924889548</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="7">
         <v>17.321428571428569</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="7">
         <v>7.628865979381444E-2</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="7">
         <v>17.321428571428569</v>
       </c>
       <c r="K19">
         <v>970</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="7">
         <v>5.1030927835051543</v>
       </c>
       <c r="M19">
@@ -1763,7 +1770,7 @@
       <c r="N19">
         <v>567</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="7">
         <v>6.2298969072164949</v>
       </c>
     </row>
@@ -1780,28 +1787,28 @@
       <c r="D20">
         <v>6</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="7">
         <v>0.39999998000000098</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="7">
         <v>2.7510316330797369E-2</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="7">
         <v>7.1152413862515518</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="7">
         <v>17.73170731707317</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="7">
         <v>5.6396148555708389E-2</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="7">
         <v>17.73170731707317</v>
       </c>
       <c r="K20">
         <v>727</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="7">
         <v>5.4126547455295739</v>
       </c>
       <c r="M20">
@@ -1810,7 +1817,7 @@
       <c r="N20">
         <v>454</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="7">
         <v>6.5804676753782667</v>
       </c>
     </row>
@@ -1827,28 +1834,28 @@
       <c r="D21">
         <v>4</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="7">
         <v>-0.14285712244898249</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="7">
         <v>2.2082018857785431E-2</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="7">
         <v>10.60073606729758</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="7">
         <v>26.416666666666671</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="7">
         <v>8.5173501577287064E-2</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="7">
         <v>26.416666666666671</v>
       </c>
       <c r="K21">
         <v>317</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="7">
         <v>5.3375394321766558</v>
       </c>
       <c r="M21">
@@ -1857,7 +1864,7 @@
       <c r="N21">
         <v>191</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="7">
         <v>6.5015772870662456</v>
       </c>
     </row>
@@ -1874,28 +1881,28 @@
       <c r="D22">
         <v>4</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="7">
         <v>-0.14285712244898249</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="7">
         <v>2.2082018857785431E-2</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="7">
         <v>10.60073606729758</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="7">
         <v>26.416666666666671</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="7">
         <v>8.5173501577287064E-2</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="7">
         <v>26.416666666666671</v>
       </c>
       <c r="K22">
         <v>317</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="7">
         <v>5.3375394321766558</v>
       </c>
       <c r="M22">
@@ -1904,7 +1911,7 @@
       <c r="N22">
         <v>191</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="7">
         <v>6.5015772870662456</v>
       </c>
     </row>
@@ -1921,28 +1928,28 @@
       <c r="D23">
         <v>67</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="7">
         <v>-0.47252746733486301</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="7">
         <v>6.5467625852181563E-2</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="7">
         <v>9.955334018499487</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="7">
         <v>24.821428571428569</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="7">
         <v>6.6906474820143891E-2</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="7">
         <v>24.821428571428569</v>
       </c>
       <c r="K23">
         <v>1390</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="7">
         <v>5.0129496402877693</v>
       </c>
       <c r="M23">
@@ -1951,7 +1958,7 @@
       <c r="N23">
         <v>779</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="7">
         <v>6.1654676258992804</v>
       </c>
     </row>
@@ -1968,28 +1975,28 @@
       <c r="D24">
         <v>14</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="7">
         <v>9.6774190426639012E-2</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="7">
         <v>4.3055555495756168E-2</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="7">
         <v>9.9532567049808449</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="7">
         <v>24.827586206896552</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="7">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="7">
         <v>24.827586206896552</v>
       </c>
       <c r="K24">
         <v>720</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="7">
         <v>4.9152777777777779</v>
       </c>
       <c r="M24">
@@ -1998,7 +2005,7 @@
       <c r="N24">
         <v>410</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="7">
         <v>6.0986111111111114</v>
       </c>
     </row>
@@ -2015,28 +2022,28 @@
       <c r="D25">
         <v>37</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="7">
         <v>0.2127659551833409</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="7">
         <v>4.7764227618005979E-2</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="7">
         <v>7.1150626235992096</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="7">
         <v>17.72972972972973</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="7">
         <v>5.7926829268292693E-2</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="7">
         <v>17.72972972972973</v>
       </c>
       <c r="K25">
         <v>1968</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="7">
         <v>4.7672764227642279</v>
       </c>
       <c r="M25">
@@ -2045,7 +2052,7 @@
       <c r="N25">
         <v>1158</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="7">
         <v>5.9100609756097562</v>
       </c>
     </row>
@@ -2062,28 +2069,28 @@
       <c r="D26">
         <v>3</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="7">
         <v>0.86046509626825363</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="7">
         <v>6.3328424059899233E-2</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="7">
         <v>6.1998259472486277</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="7">
         <v>15.43181818181818</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="7">
         <v>6.774668630338733E-2</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="7">
         <v>15.43181818181818</v>
       </c>
       <c r="K26">
         <v>679</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="7">
         <v>5.0618556701030926</v>
       </c>
       <c r="M26">
@@ -2092,7 +2099,7 @@
       <c r="N26">
         <v>348</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="7">
         <v>6.2194403534609721</v>
       </c>
     </row>
@@ -2109,28 +2116,28 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="7">
         <v>0.59999988000002402</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="7">
         <v>1.291989660744213E-2</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="7">
         <v>9.1348229214166299</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="7">
         <v>22.764705882352938</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="7">
         <v>7.2351421188630485E-2</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="7">
         <v>22.764705882352938</v>
       </c>
       <c r="K27">
         <v>387</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="7">
         <v>4.8423772609819116</v>
       </c>
       <c r="M27">
@@ -2139,7 +2146,7 @@
       <c r="N27">
         <v>207</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="7">
         <v>5.9379844961240309</v>
       </c>
     </row>
@@ -2156,28 +2163,28 @@
       <c r="D28">
         <v>9</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="7">
         <v>0.39999998666666708</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="7">
         <v>2.5773195854146742E-2</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="7">
         <v>9.5315940809313418</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="7">
         <v>23.755102040816329</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="7">
         <v>7.3883161512027493E-2</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="7">
         <v>23.755102040816329</v>
       </c>
       <c r="K28">
         <v>1164</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="7">
         <v>4.7104810996563584</v>
       </c>
       <c r="M28">
@@ -2186,7 +2193,7 @@
       <c r="N28">
         <v>578</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="7">
         <v>5.8659793814432986</v>
       </c>
     </row>
@@ -2203,28 +2210,28 @@
       <c r="D29">
         <v>8</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="7">
         <v>0.46666665111111161</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="7">
         <v>4.8154093020619432E-2</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="7">
         <v>10.401310861423219</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="7">
         <v>25.958333333333329</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="7">
         <v>4.49438202247191E-2</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="7">
         <v>25.958333333333329</v>
       </c>
       <c r="K29">
         <v>623</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="7">
         <v>5.382022471910112</v>
       </c>
       <c r="M29">
@@ -2233,7 +2240,7 @@
       <c r="N29">
         <v>395</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="7">
         <v>6.5553772070626</v>
       </c>
     </row>
@@ -2250,28 +2257,28 @@
       <c r="D30">
         <v>8</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="7">
         <v>0.3043478128544429</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="7">
         <v>5.8524172879073362E-2</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="7">
         <v>5.6407488186114154</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="7">
         <v>14.03571428571429</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="7">
         <v>6.6157760814249358E-2</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="7">
         <v>14.03571428571429</v>
       </c>
       <c r="K30">
         <v>393</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="7">
         <v>5.0737913486005093</v>
       </c>
       <c r="M30">
@@ -2280,7 +2287,7 @@
       <c r="N30">
         <v>220</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="7">
         <v>6.1882951653944023</v>
       </c>
     </row>
@@ -2297,28 +2304,28 @@
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="7">
         <v>0.99999980000003996</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="7">
         <v>3.0674846437577629E-2</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="7">
         <v>5.9469046291132184</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="7">
         <v>14.81818181818182</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="7">
         <v>4.9079754601227002E-2</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="7">
         <v>14.81818181818182</v>
       </c>
       <c r="K31">
         <v>163</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="7">
         <v>5.3680981595092021</v>
       </c>
       <c r="M31">
@@ -2327,7 +2334,7 @@
       <c r="N31">
         <v>89</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="7">
         <v>6.5030674846625756</v>
       </c>
     </row>
@@ -2344,28 +2351,28 @@
       <c r="D32">
         <v>33</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="7">
         <v>-0.17857142538265311</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="7">
         <v>6.5959952808056596E-2</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="7">
         <v>6.0944388356049144</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="7">
         <v>15.16071428571429</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="7">
         <v>7.5382803297997639E-2</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="7">
         <v>15.16071428571429</v>
       </c>
       <c r="K32">
         <v>849</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="7">
         <v>4.486454652532391</v>
       </c>
       <c r="M32">
@@ -2374,7 +2381,7 @@
       <c r="N32">
         <v>436</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="7">
         <v>5.5983510011778561</v>
       </c>
     </row>
@@ -2391,28 +2398,28 @@
       <c r="D33">
         <v>2</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="7">
         <v>0.636363578512402</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="7">
         <v>6.1111110771604943E-2</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="7">
         <v>7.2266666666666666</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="7">
         <v>18</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="7">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="7">
         <v>18</v>
       </c>
       <c r="K33">
         <v>180</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="7">
         <v>4.7444444444444436</v>
       </c>
       <c r="M33">
@@ -2421,7 +2428,7 @@
       <c r="N33">
         <v>95</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="7">
         <v>5.8944444444444448</v>
       </c>
     </row>
@@ -2438,28 +2445,28 @@
       <c r="D34">
         <v>19</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="7">
         <v>0.40624999365234388</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="7">
         <v>5.4700854654101828E-2</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="7">
         <v>7.821880341880342</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="7">
         <v>19.5</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="7">
         <v>5.4700854700854701E-2</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="7">
         <v>19.5</v>
       </c>
       <c r="K34">
         <v>1170</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="7">
         <v>5.5581196581196579</v>
       </c>
       <c r="M34">
@@ -2468,7 +2475,7 @@
       <c r="N34">
         <v>821</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="7">
         <v>6.7384615384615394</v>
       </c>
     </row>
@@ -2485,28 +2492,28 @@
       <c r="D35">
         <v>17</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="7">
         <v>-0.25925924965706482</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="7">
         <v>5.0751879603849852E-2</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="7">
         <v>10.69864661654135</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="7">
         <v>26.6</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="7">
         <v>0.14661654135338351</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="7">
         <v>26.6</v>
       </c>
       <c r="K35">
         <v>532</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="7">
         <v>5.0206766917293244</v>
       </c>
       <c r="M35">
@@ -2515,7 +2522,7 @@
       <c r="N35">
         <v>270</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="7">
         <v>6.1578947368421053</v>
       </c>
     </row>
@@ -2532,28 +2539,28 @@
       <c r="D36">
         <v>37</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="7">
         <v>-0.25423728382648669</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="7">
         <v>5.4934823040097933E-2</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="7">
         <v>8.4499726147442225</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="7">
         <v>21.058823529411761</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="7">
         <v>6.6108007448789571E-2</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="7">
         <v>21.058823529411761</v>
       </c>
       <c r="K36">
         <v>1074</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="7">
         <v>4.7495344506517689</v>
       </c>
       <c r="M36">
@@ -2562,7 +2569,7 @@
       <c r="N36">
         <v>605</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="7">
         <v>5.8538175046554937</v>
       </c>
     </row>
@@ -2579,28 +2586,28 @@
       <c r="D37">
         <v>48</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="7">
         <v>-0.31506848883467831</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="7">
         <v>4.1383219931188653E-2</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="7">
         <v>9.5650671079242517</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="7">
         <v>23.837837837837839</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="7">
         <v>7.4829931972789115E-2</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="7">
         <v>23.837837837837839</v>
       </c>
       <c r="K37">
         <v>1764</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="7">
         <v>5.2222222222222223</v>
       </c>
       <c r="M37">
@@ -2609,7 +2616,7 @@
       <c r="N37">
         <v>1047</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="7">
         <v>6.3452380952380949</v>
       </c>
     </row>
@@ -2626,28 +2633,28 @@
       <c r="D38">
         <v>22</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="7">
         <v>0.30158729680020158</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="7">
         <v>3.5492957726482838E-2</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="7">
         <v>10.32410859359053</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="7">
         <v>25.724637681159422</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="7">
         <v>8.5633802816901403E-2</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="7">
         <v>25.724637681159422</v>
       </c>
       <c r="K38">
         <v>1775</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="7">
         <v>4.6540845070422536</v>
       </c>
       <c r="M38">
@@ -2656,7 +2663,7 @@
       <c r="N38">
         <v>901</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="7">
         <v>5.7588732394366193</v>
       </c>
     </row>
@@ -2673,28 +2680,28 @@
       <c r="D39">
         <v>24</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="7">
         <v>0.17241379013079669</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="7">
         <v>3.9189189162709998E-2</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="7">
         <v>7.2489716545814096</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="7">
         <v>18.04878048780488</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="7">
         <v>7.3648648648648646E-2</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="7">
         <v>18.04878048780488</v>
       </c>
       <c r="K39">
         <v>1480</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="7">
         <v>4.6885135135135139</v>
       </c>
       <c r="M39">
@@ -2703,7 +2710,7 @@
       <c r="N39">
         <v>784</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="7">
         <v>5.881756756756757</v>
       </c>
     </row>
@@ -2720,28 +2727,28 @@
       <c r="D40">
         <v>7</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="7">
         <v>0.54838707908428774</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="7">
         <v>3.440621527812851E-2</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="7">
         <v>5.8484193190361964</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="7">
         <v>14.53225806451613</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="7">
         <v>8.8790233074361818E-2</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="7">
         <v>14.53225806451613</v>
       </c>
       <c r="K40">
         <v>901</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="7">
         <v>4.4594894561598224</v>
       </c>
       <c r="M40">
@@ -2750,7 +2757,7 @@
       <c r="N40">
         <v>519</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="7">
         <v>5.597114317425083</v>
       </c>
     </row>
@@ -2767,28 +2774,28 @@
       <c r="D41">
         <v>8</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="7">
         <v>0.65217389886578481</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="7">
         <v>3.1506849293488459E-2</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="7">
         <v>9.0136564805057944</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="7">
         <v>22.46153846153846</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="7">
         <v>7.260273972602739E-2</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="7">
         <v>22.46153846153846</v>
       </c>
       <c r="K41">
         <v>1460</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="7">
         <v>4.4027397260273968</v>
       </c>
       <c r="M41">
@@ -2797,7 +2804,7 @@
       <c r="N41">
         <v>675</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="7">
         <v>5.5041095890410956</v>
       </c>
     </row>
@@ -2814,28 +2821,28 @@
       <c r="D42">
         <v>6</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="7">
         <v>0.65714283836734755</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="7">
         <v>7.2314049437367661E-2</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="7">
         <v>12.132231404958681</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="7">
         <v>30.25</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="7">
         <v>8.057851239669421E-2</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="7">
         <v>30.25</v>
       </c>
       <c r="K42">
         <v>484</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="7">
         <v>4.5227272727272716</v>
       </c>
       <c r="M42">
@@ -2844,7 +2851,7 @@
       <c r="N42">
         <v>258</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="7">
         <v>5.6074380165289259</v>
       </c>
     </row>
@@ -2861,28 +2868,28 @@
       <c r="D43">
         <v>15</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="7">
         <v>0.44444443621399188</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="7">
         <v>3.2987171635316323E-2</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="7">
         <v>9.3860511388428307</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="7">
         <v>23.38571428571429</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="7">
         <v>7.9413561392791696E-2</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="7">
         <v>23.38571428571429</v>
       </c>
       <c r="K43">
         <v>1637</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="7">
         <v>4.9651802076970064</v>
       </c>
       <c r="M43">
@@ -2891,7 +2898,7 @@
       <c r="N43">
         <v>906</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="7">
         <v>6.1032376298106286</v>
       </c>
     </row>
@@ -2908,28 +2915,28 @@
       <c r="D44">
         <v>69</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="7">
         <v>-0.4838709625390219</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="7">
         <v>8.959537563622795E-2</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="7">
         <v>5.4184120311287947</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="7">
         <v>13.480519480519479</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="7">
         <v>6.5510597302504817E-2</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="7">
         <v>13.480519480519479</v>
       </c>
       <c r="K44">
         <v>1038</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="7">
         <v>4.5346820809248554</v>
       </c>
       <c r="M44">
@@ -2938,7 +2945,7 @@
       <c r="N44">
         <v>527</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="7">
         <v>5.6512524084778422</v>
       </c>
     </row>
@@ -2955,28 +2962,28 @@
       <c r="D45">
         <v>22</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="7">
         <v>0.40540539992695412</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="7">
         <v>6.3738156706513213E-2</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="7">
         <v>6.0597648690671946</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="7">
         <v>15.07792207792208</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="7">
         <v>7.14900947459087E-2</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="7">
         <v>15.07792207792208</v>
       </c>
       <c r="K45">
         <v>1161</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="7">
         <v>4.3953488372093021</v>
       </c>
       <c r="M45">
@@ -2985,7 +2992,7 @@
       <c r="N45">
         <v>576</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="7">
         <v>5.5021533161068046</v>
       </c>
     </row>
@@ -3002,28 +3009,28 @@
       <c r="D46">
         <v>31</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="7">
         <v>-0.1698113175507299</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="7">
         <v>4.391052191888109E-2</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="7">
         <v>10.52945499081445</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="7">
         <v>26.239130434782609</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="7">
         <v>8.4507042253521125E-2</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="7">
         <v>26.239130434782609</v>
       </c>
       <c r="K46">
         <v>1207</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="7">
         <v>4.8243579121789564</v>
       </c>
       <c r="M46">
@@ -3032,7 +3039,7 @@
       <c r="N46">
         <v>628</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="7">
         <v>5.9834299917149956</v>
       </c>
     </row>
@@ -3049,28 +3056,28 @@
       <c r="D47">
         <v>25</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="7">
         <v>9.090908925619838E-2</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="7">
         <v>3.7983425388132992E-2</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="7">
         <v>7.0943538606656791</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="7">
         <v>17.658536585365859</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="7">
         <v>7.7348066298342538E-2</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="7">
         <v>17.658536585365859</v>
       </c>
       <c r="K47">
         <v>1448</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="7">
         <v>5.0897790055248624</v>
       </c>
       <c r="M47">
@@ -3079,7 +3086,7 @@
       <c r="N47">
         <v>814</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="7">
         <v>6.3135359116022096</v>
       </c>
     </row>
@@ -3096,28 +3103,28 @@
       <c r="D48">
         <v>77</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="7">
         <v>-0.5247524700519558</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="7">
         <v>9.2660550373705908E-2</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="7">
         <v>5.5450423876437123</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="7">
         <v>13.79746835443038</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="7">
         <v>6.5137614678899086E-2</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="7">
         <v>13.79746835443038</v>
       </c>
       <c r="K48">
         <v>1090</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="7">
         <v>4.5752293577981664</v>
       </c>
       <c r="M48">
@@ -3126,7 +3133,7 @@
       <c r="N48">
         <v>554</v>
       </c>
-      <c r="O48">
+      <c r="O48" s="7">
         <v>5.7100917431192659</v>
       </c>
     </row>
@@ -3143,28 +3150,28 @@
       <c r="D49">
         <v>30</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="7">
         <v>0.14285714081632661</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="7">
         <v>4.3997485830296987E-2</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="7">
         <v>11.81937751705194</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="7">
         <v>29.462962962962958</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="7">
         <v>8.5480829666876174E-2</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="7">
         <v>29.462962962962958</v>
       </c>
       <c r="K49">
         <v>1591</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="7">
         <v>4.7152734129478313</v>
       </c>
       <c r="M49">
@@ -3173,7 +3180,7 @@
       <c r="N49">
         <v>866</v>
       </c>
-      <c r="O49">
+      <c r="O49" s="7">
         <v>5.856065367693275</v>
       </c>
     </row>
@@ -3190,28 +3197,28 @@
       <c r="D50">
         <v>13</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="7">
         <v>0.2777777700617286</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="7">
         <v>4.7306176021936687E-2</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="7">
         <v>13.266320059418391</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="7">
         <v>33.086956521739133</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="7">
         <v>7.8843626806833114E-2</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="7">
         <v>33.086956521739133</v>
       </c>
       <c r="K50">
         <v>761</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="7">
         <v>5.148488830486202</v>
       </c>
       <c r="M50">
@@ -3220,7 +3227,7 @@
       <c r="N50">
         <v>423</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="7">
         <v>6.3088042049934296</v>
       </c>
     </row>
@@ -3237,28 +3244,28 @@
       <c r="D51">
         <v>25</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="7">
         <v>0.16666666388888901</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="7">
         <v>5.0251256239320551E-2</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="7">
         <v>12.93423876137444</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="7">
         <v>32.270270270270267</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="7">
         <v>6.5326633165829151E-2</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="7">
         <v>32.270270270270267</v>
       </c>
       <c r="K51">
         <v>1194</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="7">
         <v>5.3132328308207706</v>
       </c>
       <c r="M51">
@@ -3267,7 +3274,7 @@
       <c r="N51">
         <v>643</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="7">
         <v>6.4765494137353432</v>
       </c>
     </row>
@@ -3284,28 +3291,28 @@
       <c r="D52">
         <v>47</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="7">
         <v>-0.18987341531805799</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="7">
         <v>4.5770567760271982E-2</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="7">
         <v>9.4869664597850765</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="7">
         <v>23.643835616438359</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="7">
         <v>7.3580533024333719E-2</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="7">
         <v>23.643835616438359</v>
       </c>
       <c r="K52">
         <v>1726</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="7">
         <v>4.9826187717265364</v>
       </c>
       <c r="M52">
@@ -3314,7 +3321,7 @@
       <c r="N52">
         <v>971</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="7">
         <v>6.1448435689455394</v>
       </c>
     </row>
@@ -3331,28 +3338,28 @@
       <c r="D53">
         <v>10</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="7">
         <v>0.31034481688466148</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="7">
         <v>8.4204413448256566E-3</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="7">
         <v>7.1010846064504607</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="7">
         <v>17.661538461538459</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="7">
         <v>9.1173054587688734E-2</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="7">
         <v>17.661538461538459</v>
       </c>
       <c r="K53">
         <v>3444</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="7">
         <v>4.6663763066202089</v>
       </c>
       <c r="M53">
@@ -3361,7 +3368,7 @@
       <c r="N53">
         <v>1515</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="7">
         <v>6.0406504065040654</v>
       </c>
     </row>
@@ -3378,28 +3385,28 @@
       <c r="D54">
         <v>46</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="7">
         <v>-0.12195121802498519</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="7">
         <v>4.586129751350039E-2</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="7">
         <v>8.6517667987385796</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="7">
         <v>21.5421686746988</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="7">
         <v>8.7248322147651006E-2</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="7">
         <v>21.5421686746988</v>
       </c>
       <c r="K54">
         <v>1788</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="7">
         <v>4.9144295302013434</v>
       </c>
       <c r="M54">
@@ -3408,7 +3415,7 @@
       <c r="N54">
         <v>1000</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="7">
         <v>6.0246085011185686</v>
       </c>
     </row>
@@ -3425,28 +3432,28 @@
       <c r="D55">
         <v>67</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="7">
         <v>-0.42553191036668181</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="7">
         <v>6.2210456610052638E-2</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="7">
         <v>10.095834987866761</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="7">
         <v>25.18333333333333</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="7">
         <v>5.6254136333553938E-2</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="7">
         <v>25.18333333333333</v>
       </c>
       <c r="K55">
         <v>1511</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="7">
         <v>5.4288550628722696</v>
       </c>
       <c r="M55">
@@ -3455,7 +3462,7 @@
       <c r="N55">
         <v>996</v>
       </c>
-      <c r="O55">
+      <c r="O55" s="7">
         <v>6.6075446724023834</v>
       </c>
     </row>
@@ -3472,28 +3479,28 @@
       <c r="D56">
         <v>3</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="7">
         <v>0</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="7">
         <v>3.5294117439446368E-2</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="7">
         <v>7.5720261437908496</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="7">
         <v>18.888888888888889</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="7">
         <v>4.1176470588235287E-2</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="7">
         <v>18.888888888888889</v>
       </c>
       <c r="K56">
         <v>170</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="7">
         <v>4.5352941176470587</v>
       </c>
       <c r="M56">
@@ -3502,7 +3509,7 @@
       <c r="N56">
         <v>80</v>
       </c>
-      <c r="O56">
+      <c r="O56" s="7">
         <v>5.7294117647058824</v>
       </c>
     </row>
@@ -3519,28 +3526,28 @@
       <c r="D57">
         <v>4</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="7">
         <v>0.78378376260043892</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="7">
         <v>3.6815920361377187E-2</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="7">
         <v>9.1666123925825413</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="7">
         <v>22.84090909090909</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="7">
         <v>7.5621890547263676E-2</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="7">
         <v>22.84090909090909</v>
       </c>
       <c r="K57">
         <v>1005</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="7">
         <v>4.6208955223880599</v>
       </c>
       <c r="M57">
@@ -3549,7 +3556,7 @@
       <c r="N57">
         <v>504</v>
       </c>
-      <c r="O57">
+      <c r="O57" s="7">
         <v>5.8238805970149254</v>
       </c>
     </row>
@@ -3566,28 +3573,28 @@
       <c r="D58">
         <v>33</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="7">
         <v>2.941176427335641E-2</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="7">
         <v>3.6916395202542668E-2</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="7">
         <v>6.1795222584147673</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="7">
         <v>15.35</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="7">
         <v>9.8805646036916397E-2</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="7">
         <v>15.35</v>
       </c>
       <c r="K58">
         <v>1842</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="7">
         <v>4.8621064060803478</v>
       </c>
       <c r="M58">
@@ -3596,7 +3603,7 @@
       <c r="N58">
         <v>1060</v>
       </c>
-      <c r="O58">
+      <c r="O58" s="7">
         <v>5.9777415852334421</v>
       </c>
     </row>
@@ -3613,28 +3620,28 @@
       <c r="D59">
         <v>14</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="7">
         <v>0.52542371990807257</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="7">
         <v>3.220524015709321E-2</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="7">
         <v>7.8221638948248629</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="7">
         <v>19.48936170212766</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="7">
         <v>6.6048034934497818E-2</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="7">
         <v>19.48936170212766</v>
       </c>
       <c r="K59">
         <v>1832</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="7">
         <v>4.8247816593886466</v>
       </c>
       <c r="M59">
@@ -3643,7 +3650,7 @@
       <c r="N59">
         <v>989</v>
       </c>
-      <c r="O59">
+      <c r="O59" s="7">
         <v>5.966157205240175</v>
       </c>
     </row>
@@ -3660,28 +3667,28 @@
       <c r="D60">
         <v>30</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="7">
         <v>-3.4482758026159348E-2</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="7">
         <v>5.3753475390404558E-2</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="7">
         <v>9.2144893814209379</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="7">
         <v>22.957446808510639</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="7">
         <v>7.8776645041705284E-2</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="7">
         <v>22.957446808510639</v>
       </c>
       <c r="K60">
         <v>1079</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="7">
         <v>4.919369786839666</v>
       </c>
       <c r="M60">
@@ -3690,7 +3697,7 @@
       <c r="N60">
         <v>585</v>
       </c>
-      <c r="O60">
+      <c r="O60" s="7">
         <v>6.0667284522706213</v>
       </c>
     </row>
@@ -3707,28 +3714,28 @@
       <c r="D61">
         <v>41</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="7">
         <v>-0.4642857059948981</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="7">
         <v>3.124999998256138E-2</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="7">
         <v>11.593433179723499</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="7">
         <v>28.903225806451609</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="7">
         <v>8.0357142857142863E-2</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="7">
         <v>28.903225806451609</v>
       </c>
       <c r="K61">
         <v>1792</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="7">
         <v>5.0904017857142856</v>
       </c>
       <c r="M61">
@@ -3737,7 +3744,7 @@
       <c r="N61">
         <v>1067</v>
       </c>
-      <c r="O61">
+      <c r="O61" s="7">
         <v>6.4274553571428568</v>
       </c>
     </row>
@@ -3754,28 +3761,28 @@
       <c r="D62">
         <v>42</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="7">
         <v>-0.4482758543400715</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="7">
         <v>5.906313639606605E-2</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="7">
         <v>7.58276672411092</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="7">
         <v>18.88461538461538</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="7">
         <v>7.2301425661914456E-2</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="7">
         <v>18.88461538461538</v>
       </c>
       <c r="K62">
         <v>982</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="7">
         <v>4.8818737270875756</v>
       </c>
       <c r="M62">
@@ -3784,7 +3791,7 @@
       <c r="N62">
         <v>573</v>
       </c>
-      <c r="O62">
+      <c r="O62" s="7">
         <v>6.0947046843177191</v>
       </c>
     </row>
@@ -3801,28 +3808,28 @@
       <c r="D63">
         <v>44</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="7">
         <v>-0.11392404919083481</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="7">
         <v>6.4595257510551701E-2</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="7">
         <v>6.6444984641223401</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="7">
         <v>16.527027027027032</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="7">
         <v>8.4219133278822564E-2</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="7">
         <v>16.527027027027032</v>
       </c>
       <c r="K63">
         <v>1223</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="7">
         <v>4.7612428454619788</v>
       </c>
       <c r="M63">
@@ -3831,7 +3838,7 @@
       <c r="N63">
         <v>696</v>
       </c>
-      <c r="O63">
+      <c r="O63" s="7">
         <v>5.8683565004088312</v>
       </c>
     </row>
@@ -3848,28 +3855,28 @@
       <c r="D64">
         <v>26</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="7">
         <v>-0.1063829764599367</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="7">
         <v>4.2688464993016831E-2</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="7">
         <v>11.628710741431229</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="7">
         <v>28.973684210526319</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="7">
         <v>9.8092643051771122E-2</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="7">
         <v>28.973684210526319</v>
       </c>
       <c r="K64">
         <v>1101</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="7">
         <v>4.9255222524977293</v>
       </c>
       <c r="M64">
@@ -3878,7 +3885,7 @@
       <c r="N64">
         <v>650</v>
       </c>
-      <c r="O64">
+      <c r="O64" s="7">
         <v>6.025431425976385</v>
       </c>
     </row>
@@ -3895,28 +3902,28 @@
       <c r="D65">
         <v>35</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="7">
         <v>-0.34615383949704148</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="7">
         <v>3.9603960365876642E-2</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="7">
         <v>8.9288083958330642</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="7">
         <v>22.254237288135592</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="7">
         <v>6.7783701447067787E-2</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="7">
         <v>22.254237288135592</v>
       </c>
       <c r="K65">
         <v>1313</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="7">
         <v>4.9885757806549886</v>
       </c>
       <c r="M65">
@@ -3925,7 +3932,7 @@
       <c r="N65">
         <v>751</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="7">
         <v>6.2094440213252096</v>
       </c>
     </row>
@@ -3942,28 +3949,28 @@
       <c r="D66">
         <v>3</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="7">
         <v>0.14285712244898249</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="7">
         <v>3.6269429863888973E-2</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="7">
         <v>7.0368346679227516</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="7">
         <v>17.54545454545455</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="7">
         <v>4.6632124352331612E-2</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="7">
         <v>17.54545454545455</v>
       </c>
       <c r="K66">
         <v>193</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="7">
         <v>4.2746113989637307</v>
       </c>
       <c r="M66">
@@ -3972,7 +3979,7 @@
       <c r="N66">
         <v>89</v>
       </c>
-      <c r="O66">
+      <c r="O66" s="7">
         <v>5.5077720207253886</v>
       </c>
     </row>
@@ -3989,28 +3996,28 @@
       <c r="D67">
         <v>3</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="7">
         <v>0.14285712244898249</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="7">
         <v>3.6269429863888973E-2</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="7">
         <v>7.0368346679227516</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="7">
         <v>17.54545454545455</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="7">
         <v>4.6632124352331612E-2</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="7">
         <v>17.54545454545455</v>
       </c>
       <c r="K67">
         <v>193</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="7">
         <v>4.2746113989637307</v>
       </c>
       <c r="M67">
@@ -4019,7 +4026,7 @@
       <c r="N67">
         <v>89</v>
       </c>
-      <c r="O67">
+      <c r="O67" s="7">
         <v>5.5077720207253886</v>
       </c>
     </row>
@@ -4036,28 +4043,28 @@
       <c r="D68">
         <v>25</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="7">
         <v>-0.5624999824218756</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="7">
         <v>5.0552922510974853E-2</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="7">
         <v>7.2715684946964574</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="7">
         <v>18.085714285714289</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="7">
         <v>9.3206951026856236E-2</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="7">
         <v>18.085714285714289</v>
       </c>
       <c r="K68">
         <v>633</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="7">
         <v>4.7898894154818326</v>
       </c>
       <c r="M68">
@@ -4066,7 +4073,7 @@
       <c r="N68">
         <v>348</v>
       </c>
-      <c r="O68">
+      <c r="O68" s="7">
         <v>6.1311216429699842</v>
       </c>
     </row>
@@ -4083,28 +4090,28 @@
       <c r="D69">
         <v>55</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="7">
         <v>-0.34146341046995837</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="7">
         <v>7.282415624083112E-2</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="7">
         <v>9.0399715808170509</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="7">
         <v>22.52</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="7">
         <v>7.9928952042628773E-2</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="7">
         <v>22.52</v>
       </c>
       <c r="K69">
         <v>1126</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="7">
         <v>5.1882770870337476</v>
       </c>
       <c r="M69">
@@ -4113,7 +4120,7 @@
       <c r="N69">
         <v>659</v>
       </c>
-      <c r="O69">
+      <c r="O69" s="7">
         <v>6.3250444049733572</v>
       </c>
     </row>
@@ -4130,28 +4137,28 @@
       <c r="D70">
         <v>34</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="7">
         <v>-0.2363636320661158</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="7">
         <v>5.0091074635618321E-2</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="7">
         <v>11.596510401687279</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="7">
         <v>28.89473684210526</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="7">
         <v>9.6539162112932606E-2</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="7">
         <v>28.89473684210526</v>
       </c>
       <c r="K70">
         <v>1098</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="7">
         <v>4.6111111111111107</v>
       </c>
       <c r="M70">
@@ -4160,7 +4167,7 @@
       <c r="N70">
         <v>571</v>
       </c>
-      <c r="O70">
+      <c r="O70" s="7">
         <v>5.7176684881602906</v>
       </c>
     </row>
@@ -4177,28 +4184,28 @@
       <c r="D71">
         <v>2</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="7">
         <v>0.42857136734694751</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="7">
         <v>1.7994858565565919E-2</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="7">
         <v>12.989288774635821</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="7">
         <v>32.416666666666657</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="7">
         <v>5.6555269922879167E-2</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="7">
         <v>32.416666666666657</v>
       </c>
       <c r="K71">
         <v>389</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="7">
         <v>5.4267352185089974</v>
       </c>
       <c r="M71">
@@ -4207,7 +4214,7 @@
       <c r="N71">
         <v>258</v>
       </c>
-      <c r="O71">
+      <c r="O71" s="7">
         <v>6.6555269922879177</v>
       </c>
     </row>
@@ -4224,28 +4231,28 @@
       <c r="D72">
         <v>3</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="7">
         <v>0.64705878546713025</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="7">
         <v>2.7552674185489991E-2</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="7">
         <v>7.9852773566163009</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="7">
         <v>19.903225806451609</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="7">
         <v>5.9967585089140997E-2</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="7">
         <v>19.903225806451609</v>
       </c>
       <c r="K72">
         <v>617</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="7">
         <v>4.5688816855753647</v>
       </c>
       <c r="M72">
@@ -4254,7 +4261,7 @@
       <c r="N72">
         <v>303</v>
       </c>
-      <c r="O72">
+      <c r="O72" s="7">
         <v>5.7990275526742314</v>
       </c>
     </row>
@@ -4271,28 +4278,28 @@
       <c r="D73">
         <v>54</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="7">
         <v>-0.28571428231292523</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="7">
         <v>7.932011323954663E-2</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="7">
         <v>13.26809490084986</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="7">
         <v>33.09375</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="7">
         <v>7.6487252124645896E-2</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="7">
         <v>33.09375</v>
       </c>
       <c r="K73">
         <v>1059</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="7">
         <v>5.1482530689329558</v>
       </c>
       <c r="M73">
@@ -4301,7 +4308,7 @@
       <c r="N73">
         <v>597</v>
       </c>
-      <c r="O73">
+      <c r="O73" s="7">
         <v>6.3474976392823406</v>
       </c>
     </row>
@@ -4318,28 +4325,28 @@
       <c r="D74">
         <v>21</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="7">
         <v>0.1599999968000001</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="7">
         <v>6.8306010835647524E-2</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="7">
         <v>9.4965274105411606</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="7">
         <v>23.612903225806448</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="7">
         <v>0.12841530054644809</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="7">
         <v>23.612903225806448</v>
       </c>
       <c r="K74">
         <v>732</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="7">
         <v>4.1311475409836067</v>
       </c>
       <c r="M74">
@@ -4348,7 +4355,7 @@
       <c r="N74">
         <v>352</v>
       </c>
-      <c r="O74">
+      <c r="O74" s="7">
         <v>5.2363387978142084</v>
       </c>
     </row>
@@ -4365,28 +4372,28 @@
       <c r="D75">
         <v>36</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="7">
         <v>-0.714285697278912</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="7">
         <v>3.9215686237893843E-2</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="7">
         <v>9.1376760633331351</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="7">
         <v>22.787234042553191</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="7">
         <v>5.695611577964519E-2</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="7">
         <v>22.787234042553191</v>
       </c>
       <c r="K75">
         <v>1071</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="7">
         <v>4.9934640522875817</v>
       </c>
       <c r="M75">
@@ -4395,7 +4402,7 @@
       <c r="N75">
         <v>575</v>
       </c>
-      <c r="O75">
+      <c r="O75" s="7">
         <v>6.1848739495798322</v>
       </c>
     </row>
@@ -4412,28 +4419,28 @@
       <c r="D76">
         <v>31</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="7">
         <v>-0.40909089979338858</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="7">
         <v>4.2512077253611523E-2</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="7">
         <v>7.9820215533259002</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="7">
         <v>19.90384615384615</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="7">
         <v>5.1207729468599042E-2</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="7">
         <v>19.90384615384615</v>
       </c>
       <c r="K76">
         <v>1035</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="7">
         <v>5.2396135265700483</v>
       </c>
       <c r="M76">
@@ -4442,7 +4449,7 @@
       <c r="N76">
         <v>663</v>
       </c>
-      <c r="O76">
+      <c r="O76" s="7">
         <v>6.3652173913043466</v>
       </c>
     </row>
@@ -4459,28 +4466,28 @@
       <c r="D77">
         <v>47</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="7">
         <v>-0.28767122893601049</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="7">
         <v>7.0531400898037291E-2</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="7">
         <v>7.8426251025430673</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="7">
         <v>19.528301886792448</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="7">
         <v>7.8260869565217397E-2</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="7">
         <v>19.528301886792448</v>
       </c>
       <c r="K77">
         <v>1035</v>
       </c>
-      <c r="L77">
+      <c r="L77" s="7">
         <v>5.1719806763285021</v>
       </c>
       <c r="M77">
@@ -4489,7 +4496,7 @@
       <c r="N77">
         <v>556</v>
       </c>
-      <c r="O77">
+      <c r="O77" s="7">
         <v>6.3526570048309177</v>
       </c>
     </row>
@@ -4506,28 +4513,28 @@
       <c r="D78">
         <v>35</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="7">
         <v>-0.2068965481569561</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="7">
         <v>4.5241809637096869E-2</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="7">
         <v>9.3510934619202946</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="7">
         <v>23.309090909090909</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="7">
         <v>6.8642745709828396E-2</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="7">
         <v>23.309090909090909</v>
       </c>
       <c r="K78">
         <v>1282</v>
       </c>
-      <c r="L78">
+      <c r="L78" s="7">
         <v>4.8868954758190331</v>
       </c>
       <c r="M78">
@@ -4536,7 +4543,7 @@
       <c r="N78">
         <v>720</v>
       </c>
-      <c r="O78">
+      <c r="O78" s="7">
         <v>6.0834633385335417</v>
       </c>
     </row>
@@ -4553,28 +4560,28 @@
       <c r="D79">
         <v>46</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="7">
         <v>-4.5454544938016539E-2</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="7">
         <v>5.4965646436623578E-2</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="7">
         <v>9.1788025341304529</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="7">
         <v>22.87142857142857</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="7">
         <v>7.5577763897564029E-2</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="7">
         <v>22.87142857142857</v>
       </c>
       <c r="K79">
         <v>1601</v>
       </c>
-      <c r="L79">
+      <c r="L79" s="7">
         <v>4.6951905059337911</v>
       </c>
       <c r="M79">
@@ -4583,7 +4590,7 @@
       <c r="N79">
         <v>826</v>
       </c>
-      <c r="O79">
+      <c r="O79" s="7">
         <v>5.817613991255465</v>
       </c>
     </row>
@@ -4600,28 +4607,28 @@
       <c r="D80">
         <v>45</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="7">
         <v>-0.40624999365234388</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="7">
         <v>3.4632034613294352E-2</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="7">
         <v>10.292857142857139</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="7">
         <v>25.666666666666671</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="7">
         <v>6.5476190476190479E-2</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="7">
         <v>25.666666666666671</v>
       </c>
       <c r="K80">
         <v>1848</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="7">
         <v>4.8538961038961039</v>
       </c>
       <c r="M80">
@@ -4630,7 +4637,7 @@
       <c r="N80">
         <v>1114</v>
       </c>
-      <c r="O80">
+      <c r="O80" s="7">
         <v>6.0735930735930737</v>
       </c>
     </row>
@@ -4647,28 +4654,28 @@
       <c r="D81">
         <v>25</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="7">
         <v>-4.1666665798611127E-2</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="7">
         <v>5.4237288074308151E-2</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="7">
         <v>32.236055469953783</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="7">
         <v>80.454545454545453</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="7">
         <v>0.13559322033898311</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="7">
         <v>80.454545454545453</v>
       </c>
       <c r="K81">
         <v>885</v>
       </c>
-      <c r="L81">
+      <c r="L81" s="7">
         <v>4.1525423728813564</v>
       </c>
       <c r="M81">
@@ -4677,7 +4684,7 @@
       <c r="N81">
         <v>432</v>
       </c>
-      <c r="O81">
+      <c r="O81" s="7">
         <v>5.2790960451977398</v>
       </c>
     </row>
@@ -4694,28 +4701,28 @@
       <c r="D82">
         <v>70</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="7">
         <v>-0.34615384282544381</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="7">
         <v>5.4110301740837509E-2</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="7">
         <v>11.0107447599227</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="7">
         <v>27.457142857142859</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="7">
         <v>6.9719042663891784E-2</v>
       </c>
-      <c r="J82">
+      <c r="J82" s="7">
         <v>27.457142857142859</v>
       </c>
       <c r="K82">
         <v>1922</v>
       </c>
-      <c r="L82">
+      <c r="L82" s="7">
         <v>5.1368366285119667</v>
       </c>
       <c r="M82">
@@ -4724,7 +4731,7 @@
       <c r="N82">
         <v>1098</v>
       </c>
-      <c r="O82">
+      <c r="O82" s="7">
         <v>6.3621227887617069</v>
       </c>
     </row>
@@ -4741,28 +4748,28 @@
       <c r="D83">
         <v>54</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="7">
         <v>-0.2558139505137913</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="7">
         <v>6.7292644704778831E-2</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="7">
         <v>6.4203599374021909</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="7">
         <v>15.975</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="7">
         <v>7.5899843505477307E-2</v>
       </c>
-      <c r="J83">
+      <c r="J83" s="7">
         <v>15.975</v>
       </c>
       <c r="K83">
         <v>1278</v>
       </c>
-      <c r="L83">
+      <c r="L83" s="7">
         <v>4.4632237871674487</v>
       </c>
       <c r="M83">
@@ -4771,7 +4778,7 @@
       <c r="N83">
         <v>655</v>
       </c>
-      <c r="O83">
+      <c r="O83" s="7">
         <v>5.603286384976526</v>
       </c>
     </row>
@@ -4788,28 +4795,28 @@
       <c r="D84">
         <v>14</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="7">
         <v>-0.21739129489603071</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="7">
         <v>6.7846607469479028E-2</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="7">
         <v>8.5044985250737479</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="7">
         <v>21.1875</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="7">
         <v>7.3746312684365781E-2</v>
       </c>
-      <c r="J84">
+      <c r="J84" s="7">
         <v>21.1875</v>
       </c>
       <c r="K84">
         <v>339</v>
       </c>
-      <c r="L84">
+      <c r="L84" s="7">
         <v>5.2595870206489677</v>
       </c>
       <c r="M84">
@@ -4818,7 +4825,7 @@
       <c r="N84">
         <v>244</v>
       </c>
-      <c r="O84">
+      <c r="O84" s="7">
         <v>6.5781710914454274</v>
       </c>
     </row>
@@ -4835,28 +4842,28 @@
       <c r="D85">
         <v>14</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="7">
         <v>-0.21739129489603071</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="7">
         <v>6.7846607469479028E-2</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="7">
         <v>8.5044985250737479</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="7">
         <v>21.1875</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="7">
         <v>7.3746312684365781E-2</v>
       </c>
-      <c r="J85">
+      <c r="J85" s="7">
         <v>21.1875</v>
       </c>
       <c r="K85">
         <v>339</v>
       </c>
-      <c r="L85">
+      <c r="L85" s="7">
         <v>5.2595870206489677</v>
       </c>
       <c r="M85">
@@ -4865,7 +4872,7 @@
       <c r="N85">
         <v>244</v>
       </c>
-      <c r="O85">
+      <c r="O85" s="7">
         <v>6.5781710914454274</v>
       </c>
     </row>
@@ -4882,28 +4889,28 @@
       <c r="D86">
         <v>61</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="7">
         <v>-0.28421052332409968</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="7">
         <v>5.8353808317964488E-2</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="7">
         <v>10.219963144963151</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="7">
         <v>25.4375</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="7">
         <v>0.11240786240786239</v>
       </c>
-      <c r="J86">
+      <c r="J86" s="7">
         <v>25.4375</v>
       </c>
       <c r="K86">
         <v>1628</v>
       </c>
-      <c r="L86">
+      <c r="L86" s="7">
         <v>4.4004914004914006</v>
       </c>
       <c r="M86">
@@ -4912,7 +4919,7 @@
       <c r="N86">
         <v>853</v>
       </c>
-      <c r="O86">
+      <c r="O86" s="7">
         <v>5.472358722358722</v>
       </c>
     </row>
@@ -4929,28 +4936,28 @@
       <c r="D87">
         <v>66</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="7">
         <v>-0.37499999609375012</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="7">
         <v>5.4023635310059853E-2</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="7">
         <v>8.2995563465993119</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="7">
         <v>20.662790697674421</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="7">
         <v>8.6100168823860443E-2</v>
       </c>
-      <c r="J87">
+      <c r="J87" s="7">
         <v>20.662790697674421</v>
       </c>
       <c r="K87">
         <v>1777</v>
       </c>
-      <c r="L87">
+      <c r="L87" s="7">
         <v>4.7186268992684299</v>
       </c>
       <c r="M87">
@@ -4959,7 +4966,7 @@
       <c r="N87">
         <v>944</v>
       </c>
-      <c r="O87">
+      <c r="O87" s="7">
         <v>5.92121553179516</v>
       </c>
     </row>
@@ -4976,28 +4983,28 @@
       <c r="D88">
         <v>83</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="7">
         <v>-0.38333333013888887</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="7">
         <v>6.560962270879736E-2</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="7">
         <v>9.7850657918716966</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="7">
         <v>24.38666666666667</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="7">
         <v>7.5997813012575174E-2</v>
       </c>
-      <c r="J88">
+      <c r="J88" s="7">
         <v>24.38666666666667</v>
       </c>
       <c r="K88">
         <v>1829</v>
       </c>
-      <c r="L88">
+      <c r="L88" s="7">
         <v>4.8966648441771463</v>
       </c>
       <c r="M88">
@@ -5006,7 +5013,7 @@
       <c r="N88">
         <v>1027</v>
       </c>
-      <c r="O88">
+      <c r="O88" s="7">
         <v>6.0995079278294151</v>
       </c>
     </row>
@@ -5023,28 +5030,28 @@
       <c r="D89">
         <v>72</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="7">
         <v>-0.23076922879684419</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="7">
         <v>5.9907834070707711E-2</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="7">
         <v>11.868928920541819</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="7">
         <v>29.59090909090909</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="7">
         <v>8.1413210445468509E-2</v>
       </c>
-      <c r="J89">
+      <c r="J89" s="7">
         <v>29.59090909090909</v>
       </c>
       <c r="K89">
         <v>1953</v>
       </c>
-      <c r="L89">
+      <c r="L89" s="7">
         <v>5.0778289810547879</v>
       </c>
       <c r="M89">
@@ -5053,7 +5060,7 @@
       <c r="N89">
         <v>1110</v>
       </c>
-      <c r="O89">
+      <c r="O89" s="7">
         <v>6.5074244751664114</v>
       </c>
     </row>
@@ -5070,28 +5077,28 @@
       <c r="D90">
         <v>18</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="7">
         <v>0.506849308125352</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="7">
         <v>3.9079229101135322E-2</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="7">
         <v>11.70305139186296</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="7">
         <v>29.1875</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="7">
         <v>7.0128479657387582E-2</v>
       </c>
-      <c r="J90">
+      <c r="J90" s="7">
         <v>29.1875</v>
       </c>
       <c r="K90">
         <v>1868</v>
       </c>
-      <c r="L90">
+      <c r="L90" s="7">
         <v>5.0198072805139189</v>
       </c>
       <c r="M90">
@@ -5100,7 +5107,7 @@
       <c r="N90">
         <v>1129</v>
       </c>
-      <c r="O90">
+      <c r="O90" s="7">
         <v>6.1830835117773022</v>
       </c>
     </row>
@@ -5117,28 +5124,28 @@
       <c r="D91">
         <v>23</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="7">
         <v>-0.21052631024930771</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="7">
         <v>4.4444444392462638E-2</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="7">
         <v>10.3888995215311</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="7">
         <v>25.90909090909091</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="7">
         <v>6.3157894736842107E-2</v>
       </c>
-      <c r="J91">
+      <c r="J91" s="7">
         <v>25.90909090909091</v>
       </c>
       <c r="K91">
         <v>855</v>
       </c>
-      <c r="L91">
+      <c r="L91" s="7">
         <v>4.8888888888888893</v>
       </c>
       <c r="M91">
@@ -5147,7 +5154,7 @@
       <c r="N91">
         <v>476</v>
       </c>
-      <c r="O91">
+      <c r="O91" s="7">
         <v>6.0701754385964906</v>
       </c>
     </row>
@@ -5164,28 +5171,28 @@
       <c r="D92">
         <v>95</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="7">
         <v>-0.3768115914723798</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="7">
         <v>8.5080147913020862E-2</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="7">
         <v>10.015817129849189</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="7">
         <v>24.95384615384615</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="7">
         <v>8.5696670776818737E-2</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="7">
         <v>24.95384615384615</v>
       </c>
       <c r="K92">
         <v>1622</v>
       </c>
-      <c r="L92">
+      <c r="L92" s="7">
         <v>5.0795314426633782</v>
       </c>
       <c r="M92">
@@ -5194,7 +5201,7 @@
       <c r="N92">
         <v>934</v>
       </c>
-      <c r="O92">
+      <c r="O92" s="7">
         <v>6.2749691738594331</v>
       </c>
     </row>
@@ -5211,28 +5218,28 @@
       <c r="D93">
         <v>43</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="7">
         <v>-0.19444444174382719</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="7">
         <v>7.1713147338931124E-2</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="7">
         <v>8.9515360779105801</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="7">
         <v>22.31111111111111</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="7">
         <v>6.7729083665338641E-2</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="7">
         <v>22.31111111111111</v>
       </c>
       <c r="K93">
         <v>1004</v>
       </c>
-      <c r="L93">
+      <c r="L93" s="7">
         <v>4.7968127490039842</v>
       </c>
       <c r="M93">
@@ -5241,7 +5248,7 @@
       <c r="N93">
         <v>533</v>
       </c>
-      <c r="O93">
+      <c r="O93" s="7">
         <v>5.9352589641434266</v>
       </c>
     </row>
@@ -5258,28 +5265,28 @@
       <c r="D94">
         <v>22</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="7">
         <v>-0.62962960631001452</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="7">
         <v>3.9416058336618903E-2</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="7">
         <v>9.1654501216544997</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="7">
         <v>22.833333333333329</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="7">
         <v>8.0291970802919707E-2</v>
       </c>
-      <c r="J94">
+      <c r="J94" s="7">
         <v>22.833333333333329</v>
       </c>
       <c r="K94">
         <v>685</v>
       </c>
-      <c r="L94">
+      <c r="L94" s="7">
         <v>5.0116788321167887</v>
       </c>
       <c r="M94">
@@ -5288,7 +5295,7 @@
       <c r="N94">
         <v>362</v>
       </c>
-      <c r="O94">
+      <c r="O94" s="7">
         <v>6.4394160583941602</v>
       </c>
     </row>
@@ -5305,28 +5312,28 @@
       <c r="D95">
         <v>61</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="7">
         <v>-0.45238094699546488</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="7">
         <v>4.9557522094656317E-2</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="7">
         <v>13.59445427728614</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="7">
         <v>33.9</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="7">
         <v>8.6135693215339232E-2</v>
       </c>
-      <c r="J95">
+      <c r="J95" s="7">
         <v>33.9</v>
       </c>
       <c r="K95">
         <v>1695</v>
       </c>
-      <c r="L95">
+      <c r="L95" s="7">
         <v>5.1002949852507378</v>
       </c>
       <c r="M95">
@@ -5335,7 +5342,7 @@
       <c r="N95">
         <v>905</v>
       </c>
-      <c r="O95">
+      <c r="O95" s="7">
         <v>6.2495575221238937</v>
       </c>
     </row>
@@ -5352,28 +5359,28 @@
       <c r="D96">
         <v>30</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="7">
         <v>0.47826086540642732</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="7">
         <v>6.4825253627494223E-2</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="7">
         <v>10.178180061201481</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="7">
         <v>25.342857142857142</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="7">
         <v>0.1025930101465614</v>
       </c>
-      <c r="J96">
+      <c r="J96" s="7">
         <v>25.342857142857142</v>
       </c>
       <c r="K96">
         <v>1774</v>
       </c>
-      <c r="L96">
+      <c r="L96" s="7">
         <v>5.1082299887260429</v>
       </c>
       <c r="M96">
@@ -5382,7 +5389,7 @@
       <c r="N96">
         <v>974</v>
       </c>
-      <c r="O96">
+      <c r="O96" s="7">
         <v>6.2638105975197291</v>
       </c>
     </row>
@@ -5399,28 +5406,28 @@
       <c r="D97">
         <v>20</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="7">
         <v>4.7619046485260802E-2</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="7">
         <v>3.010752686013797E-2</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="7">
         <v>9.4983439645222045</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="7">
         <v>23.64406779661017</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="7">
         <v>0.1017921146953405</v>
       </c>
-      <c r="J97">
+      <c r="J97" s="7">
         <v>23.64406779661017</v>
       </c>
       <c r="K97">
         <v>1395</v>
       </c>
-      <c r="L97">
+      <c r="L97" s="7">
         <v>5.0100358422939069</v>
       </c>
       <c r="M97">
@@ -5429,7 +5436,7 @@
       <c r="N97">
         <v>885</v>
       </c>
-      <c r="O97">
+      <c r="O97" s="7">
         <v>6.2451612903225806</v>
       </c>
     </row>
@@ -5446,28 +5453,28 @@
       <c r="D98">
         <v>32</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="7">
         <v>0.1999999975</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="7">
         <v>7.9286422121619002E-2</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="7">
         <v>9.8657062051294453</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="7">
         <v>24.609756097560979</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="7">
         <v>5.4509415262636272E-2</v>
       </c>
-      <c r="J98">
+      <c r="J98" s="7">
         <v>24.609756097560979</v>
       </c>
       <c r="K98">
         <v>1009</v>
       </c>
-      <c r="L98">
+      <c r="L98" s="7">
         <v>5.7215064420218038</v>
       </c>
       <c r="M98">
@@ -5476,7 +5483,7 @@
       <c r="N98">
         <v>644</v>
       </c>
-      <c r="O98">
+      <c r="O98" s="7">
         <v>6.8662041625371657</v>
       </c>
     </row>
@@ -5493,28 +5500,28 @@
       <c r="D99">
         <v>15</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="7">
         <v>-0.24999998958333369</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="7">
         <v>6.6666666481481479E-2</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="7">
         <v>10.310158730158729</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="7">
         <v>25.714285714285719</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="7">
         <v>6.1111111111111109E-2</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="7">
         <v>25.714285714285719</v>
       </c>
       <c r="K99">
         <v>360</v>
       </c>
-      <c r="L99">
+      <c r="L99" s="7">
         <v>5.6277777777777782</v>
       </c>
       <c r="M99">
@@ -5523,7 +5530,7 @@
       <c r="N99">
         <v>257</v>
       </c>
-      <c r="O99">
+      <c r="O99" s="7">
         <v>6.8472222222222223</v>
       </c>
     </row>
@@ -5540,28 +5547,28 @@
       <c r="D100">
         <v>7</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="7">
         <v>-7.6923071005917623E-2</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="7">
         <v>3.9393939274563819E-2</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="7">
         <v>9.4576623376623399</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="7">
         <v>23.571428571428569</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="7">
         <v>7.2727272727272724E-2</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="7">
         <v>23.571428571428569</v>
       </c>
       <c r="K100">
         <v>330</v>
       </c>
-      <c r="L100">
+      <c r="L100" s="7">
         <v>4.2848484848484851</v>
       </c>
       <c r="M100">
@@ -5570,7 +5577,7 @@
       <c r="N100">
         <v>162</v>
       </c>
-      <c r="O100">
+      <c r="O100" s="7">
         <v>5.415151515151515</v>
       </c>
     </row>
@@ -5587,28 +5594,28 @@
       <c r="D101">
         <v>14</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="7">
         <v>-0.99999992857143372</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="7">
         <v>3.5532994833672601E-2</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="7">
         <v>7.8992893401015234</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="7">
         <v>19.7</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="7">
         <v>4.8223350253807112E-2</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="7">
         <v>19.7</v>
       </c>
       <c r="K101">
         <v>394</v>
       </c>
-      <c r="L101">
+      <c r="L101" s="7">
         <v>4.6345177664974617</v>
       </c>
       <c r="M101">
@@ -5617,7 +5624,7 @@
       <c r="N101">
         <v>196</v>
       </c>
-      <c r="O101">
+      <c r="O101" s="7">
         <v>5.8401015228426392</v>
       </c>
     </row>
@@ -5634,28 +5641,28 @@
       <c r="D102">
         <v>8</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="7">
         <v>-0.3333333055555579</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="7">
         <v>5.2863435890469448E-2</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="7">
         <v>13.019005663939589</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="7">
         <v>32.428571428571431</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="7">
         <v>0.11894273127753301</v>
       </c>
-      <c r="J102">
+      <c r="J102" s="7">
         <v>32.428571428571431</v>
       </c>
       <c r="K102">
         <v>227</v>
       </c>
-      <c r="L102">
+      <c r="L102" s="7">
         <v>4.6916299559471364</v>
       </c>
       <c r="M102">
@@ -5664,7 +5671,7 @@
       <c r="N102">
         <v>121</v>
       </c>
-      <c r="O102">
+      <c r="O102" s="7">
         <v>5.9603524229074889</v>
       </c>
     </row>
@@ -5681,28 +5688,28 @@
       <c r="D103">
         <v>10</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="7">
         <v>-0.33333331111111258</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="7">
         <v>5.9523809287603931E-2</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="7">
         <v>7.2285714285714304</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="7">
         <v>18</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="7">
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="J103">
+      <c r="J103" s="7">
         <v>18</v>
       </c>
       <c r="K103">
         <v>252</v>
       </c>
-      <c r="L103">
+      <c r="L103" s="7">
         <v>4.916666666666667</v>
       </c>
       <c r="M103">
@@ -5711,7 +5718,7 @@
       <c r="N103">
         <v>141</v>
       </c>
-      <c r="O103">
+      <c r="O103" s="7">
         <v>6.0714285714285712</v>
       </c>
     </row>
@@ -5728,28 +5735,28 @@
       <c r="D104">
         <v>20</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="7">
         <v>0.25925925445816189</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="7">
         <v>8.823529397347174E-2</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="7">
         <v>7.2287581699346406</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="7">
         <v>18</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="7">
         <v>7.1895424836601302E-2</v>
       </c>
-      <c r="J104">
+      <c r="J104" s="7">
         <v>18</v>
       </c>
       <c r="K104">
         <v>612</v>
       </c>
-      <c r="L104">
+      <c r="L104" s="7">
         <v>5.4591503267973858</v>
       </c>
       <c r="M104">
@@ -5758,7 +5765,7 @@
       <c r="N104">
         <v>388</v>
       </c>
-      <c r="O104">
+      <c r="O104" s="7">
         <v>6.7320261437908497</v>
       </c>
     </row>
@@ -5775,28 +5782,28 @@
       <c r="D105">
         <v>55</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="7">
         <v>-0.57142856326530622</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="7">
         <v>6.6539923891121733E-2</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="7">
         <v>10.2919317444125</v>
       </c>
-      <c r="H105">
+      <c r="H105" s="7">
         <v>25.658536585365859</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="7">
         <v>7.1292775665399238E-2</v>
       </c>
-      <c r="J105">
+      <c r="J105" s="7">
         <v>25.658536585365859</v>
       </c>
       <c r="K105">
         <v>1052</v>
       </c>
-      <c r="L105">
+      <c r="L105" s="7">
         <v>4.8184410646387832</v>
       </c>
       <c r="M105">
@@ -5805,7 +5812,7 @@
       <c r="N105">
         <v>558</v>
       </c>
-      <c r="O105">
+      <c r="O105" s="7">
         <v>6.0503802281368824</v>
       </c>
     </row>
@@ -5822,28 +5829,28 @@
       <c r="D106">
         <v>48</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="7">
         <v>-0.71428570153061255</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="7">
         <v>5.6680161885951257E-2</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="7">
         <v>12.012599681020729</v>
       </c>
-      <c r="H106">
+      <c r="H106" s="7">
         <v>29.939393939393941</v>
       </c>
-      <c r="I106">
+      <c r="I106" s="7">
         <v>9.2105263157894732E-2</v>
       </c>
-      <c r="J106">
+      <c r="J106" s="7">
         <v>29.939393939393941</v>
       </c>
       <c r="K106">
         <v>988</v>
       </c>
-      <c r="L106">
+      <c r="L106" s="7">
         <v>4.7661943319838054</v>
       </c>
       <c r="M106">
@@ -5852,7 +5859,7 @@
       <c r="N106">
         <v>519</v>
       </c>
-      <c r="O106">
+      <c r="O106" s="7">
         <v>5.9564777327935223</v>
       </c>
     </row>
@@ -5869,28 +5876,28 @@
       <c r="D107">
         <v>66</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="7">
         <v>-0.28155339532472429</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="7">
         <v>5.5796316329471123E-2</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="7">
         <v>9.8641849042975807</v>
       </c>
-      <c r="H107">
+      <c r="H107" s="7">
         <v>24.61333333333333</v>
       </c>
-      <c r="I107">
+      <c r="I107" s="7">
         <v>4.7128927410617548E-2</v>
       </c>
-      <c r="J107">
+      <c r="J107" s="7">
         <v>24.61333333333333</v>
       </c>
       <c r="K107">
         <v>1846</v>
       </c>
-      <c r="L107">
+      <c r="L107" s="7">
         <v>4.943661971830986</v>
       </c>
       <c r="M107">
@@ -5899,7 +5906,7 @@
       <c r="N107">
         <v>1130</v>
       </c>
-      <c r="O107">
+      <c r="O107" s="7">
         <v>6.1359696641386794</v>
       </c>
     </row>
@@ -5916,28 +5923,28 @@
       <c r="D108">
         <v>25</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="7">
         <v>-0.66666664444444512</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="7">
         <v>4.8543689241838689E-2</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="7">
         <v>7.0984558483587623</v>
       </c>
-      <c r="H108">
+      <c r="H108" s="7">
         <v>17.657142857142858</v>
       </c>
-      <c r="I108">
+      <c r="I108" s="7">
         <v>8.8996763754045305E-2</v>
       </c>
-      <c r="J108">
+      <c r="J108" s="7">
         <v>17.657142857142858</v>
       </c>
       <c r="K108">
         <v>618</v>
       </c>
-      <c r="L108">
+      <c r="L108" s="7">
         <v>5.0064724919093848</v>
       </c>
       <c r="M108">
@@ -5946,7 +5953,7 @@
       <c r="N108">
         <v>353</v>
       </c>
-      <c r="O108">
+      <c r="O108" s="7">
         <v>6.1569579288025889</v>
       </c>
     </row>
@@ -5963,28 +5970,28 @@
       <c r="D109">
         <v>25</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="7">
         <v>-0.66666664444444512</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="7">
         <v>4.8543689241838689E-2</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="7">
         <v>7.0984558483587623</v>
       </c>
-      <c r="H109">
+      <c r="H109" s="7">
         <v>17.657142857142858</v>
       </c>
-      <c r="I109">
+      <c r="I109" s="7">
         <v>8.8996763754045305E-2</v>
       </c>
-      <c r="J109">
+      <c r="J109" s="7">
         <v>17.657142857142858</v>
       </c>
       <c r="K109">
         <v>618</v>
       </c>
-      <c r="L109">
+      <c r="L109" s="7">
         <v>5.0064724919093848</v>
       </c>
       <c r="M109">
@@ -5993,7 +6000,7 @@
       <c r="N109">
         <v>353</v>
       </c>
-      <c r="O109">
+      <c r="O109" s="7">
         <v>6.1569579288025889</v>
       </c>
     </row>
@@ -6010,28 +6017,28 @@
       <c r="D110">
         <v>14</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="7">
         <v>3.4482757431629048E-2</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="7">
         <v>3.06230200310211E-2</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="7">
         <v>10.26909443762665</v>
       </c>
-      <c r="H110">
+      <c r="H110" s="7">
         <v>25.594594594594589</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="7">
         <v>7.8141499472016901E-2</v>
       </c>
-      <c r="J110">
+      <c r="J110" s="7">
         <v>25.594594594594589</v>
       </c>
       <c r="K110">
         <v>947</v>
       </c>
-      <c r="L110">
+      <c r="L110" s="7">
         <v>5.1203801478352693</v>
       </c>
       <c r="M110">
@@ -6040,7 +6047,7 @@
       <c r="N110">
         <v>525</v>
       </c>
-      <c r="O110">
+      <c r="O110" s="7">
         <v>6.2291446673706439</v>
       </c>
     </row>
@@ -6057,28 +6064,28 @@
       <c r="D111">
         <v>27</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="7">
         <v>-0.1249999973958334</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="7">
         <v>5.1891891835792549E-2</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="7">
         <v>7.5739393270821838</v>
       </c>
-      <c r="H111">
+      <c r="H111" s="7">
         <v>18.877551020408159</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="7">
         <v>5.7297297297297288E-2</v>
       </c>
-      <c r="J111">
+      <c r="J111" s="7">
         <v>18.877551020408159</v>
       </c>
       <c r="K111">
         <v>925</v>
       </c>
-      <c r="L111">
+      <c r="L111" s="7">
         <v>5.2637837837837838</v>
       </c>
       <c r="M111">
@@ -6087,7 +6094,7 @@
       <c r="N111">
         <v>507</v>
       </c>
-      <c r="O111">
+      <c r="O111" s="7">
         <v>6.4086486486486489</v>
       </c>
     </row>
@@ -6104,28 +6111,28 @@
       <c r="D112">
         <v>12</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="7">
         <v>0.52941175432525978</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="7">
         <v>3.2567049787632793E-2</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="7">
         <v>10.131067441189799</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="7">
         <v>25.258064516129028</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="7">
         <v>6.9604086845466151E-2</v>
       </c>
-      <c r="J112">
+      <c r="J112" s="7">
         <v>25.258064516129028</v>
       </c>
       <c r="K112">
         <v>1566</v>
       </c>
-      <c r="L112">
+      <c r="L112" s="7">
         <v>4.9629629629629628</v>
       </c>
       <c r="M112">
@@ -6134,7 +6141,7 @@
       <c r="N112">
         <v>871</v>
       </c>
-      <c r="O112">
+      <c r="O112" s="7">
         <v>6.2567049808429118</v>
       </c>
     </row>
@@ -6151,28 +6158,28 @@
       <c r="D113">
         <v>43</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="7">
         <v>-0.24637680802352449</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="7">
         <v>5.8623619321475251E-2</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="7">
         <v>7.1455678278108188</v>
       </c>
-      <c r="H113">
+      <c r="H113" s="7">
         <v>17.833333333333329</v>
       </c>
-      <c r="I113">
+      <c r="I113" s="7">
         <v>3.058623619371283E-2</v>
       </c>
-      <c r="J113">
+      <c r="J113" s="7">
         <v>17.833333333333329</v>
       </c>
       <c r="K113">
         <v>1177</v>
       </c>
-      <c r="L113">
+      <c r="L113" s="7">
         <v>4.9821580288870004</v>
       </c>
       <c r="M113">
@@ -6181,7 +6188,7 @@
       <c r="N113">
         <v>674</v>
       </c>
-      <c r="O113">
+      <c r="O113" s="7">
         <v>6.1231945624468986</v>
       </c>
     </row>
@@ -6198,28 +6205,28 @@
       <c r="D114">
         <v>4</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="7">
         <v>0.77142854938775574</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="7">
         <v>4.8409405188921978E-2</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="7">
         <v>9.9978633090093965</v>
       </c>
-      <c r="H114">
+      <c r="H114" s="7">
         <v>24.931034482758619</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="7">
         <v>6.3623789764868599E-2</v>
       </c>
-      <c r="J114">
+      <c r="J114" s="7">
         <v>24.931034482758619</v>
       </c>
       <c r="K114">
         <v>723</v>
       </c>
-      <c r="L114">
+      <c r="L114" s="7">
         <v>5.6279391424619636</v>
       </c>
       <c r="M114">
@@ -6228,7 +6235,7 @@
       <c r="N114">
         <v>502</v>
       </c>
-      <c r="O114">
+      <c r="O114" s="7">
         <v>6.7579529737206094</v>
       </c>
     </row>
@@ -6245,28 +6252,28 @@
       <c r="D115">
         <v>38</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="7">
         <v>-8.5714284489795942E-2</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="7">
         <v>6.6921606054568247E-2</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="7">
         <v>6.361956080885335</v>
       </c>
-      <c r="H115">
+      <c r="H115" s="7">
         <v>15.84848484848485</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="7">
         <v>5.6405353728489482E-2</v>
       </c>
-      <c r="J115">
+      <c r="J115" s="7">
         <v>15.84848484848485</v>
       </c>
       <c r="K115">
         <v>1046</v>
       </c>
-      <c r="L115">
+      <c r="L115" s="7">
         <v>5.0229445506692159</v>
       </c>
       <c r="M115">
@@ -6275,7 +6282,7 @@
       <c r="N115">
         <v>592</v>
       </c>
-      <c r="O115">
+      <c r="O115" s="7">
         <v>6.1443594646271507</v>
       </c>
     </row>
@@ -6286,28 +6293,28 @@
       <c r="D116">
         <v>38</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="7">
         <v>-8.5714284489795942E-2</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="7">
         <v>6.6921606054568247E-2</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="7">
         <v>6.361956080885335</v>
       </c>
-      <c r="H116">
+      <c r="H116" s="7">
         <v>15.84848484848485</v>
       </c>
-      <c r="I116">
+      <c r="I116" s="7">
         <v>5.6405353728489482E-2</v>
       </c>
-      <c r="J116">
+      <c r="J116" s="7">
         <v>15.84848484848485</v>
       </c>
       <c r="K116">
         <v>1046</v>
       </c>
-      <c r="L116">
+      <c r="L116" s="7">
         <v>5.0229445506692159</v>
       </c>
       <c r="M116">
@@ -6316,7 +6323,7 @@
       <c r="N116">
         <v>592</v>
       </c>
-      <c r="O116">
+      <c r="O116" s="7">
         <v>6.1443594646271507</v>
       </c>
     </row>
